--- a/project5-1-menu/combined_stores.xlsx
+++ b/project5-1-menu/combined_stores.xlsx
@@ -4954,6 +4954,11 @@
           <t>1475</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="M47" t="inlineStr">
         <is>
           <t>Central</t>
@@ -4976,6 +4981,11 @@
           <t>1472</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
       <c r="M48" t="inlineStr">
         <is>
           <t>Central</t>
@@ -4998,6 +5008,11 @@
           <t>1471</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
       <c r="M49" t="inlineStr">
         <is>
           <t>Central</t>
@@ -5020,6 +5035,11 @@
           <t>1465</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
       <c r="M50" t="inlineStr">
         <is>
           <t>Central</t>
@@ -5042,6 +5062,11 @@
           <t>1456</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>19000</t>
+        </is>
+      </c>
       <c r="M51" t="inlineStr">
         <is>
           <t>Central</t>
@@ -6039,6 +6064,11 @@
           <t>1387</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
           <t>West</t>
@@ -6061,6 +6091,11 @@
           <t>1394</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="M63" t="inlineStr">
         <is>
           <t>West</t>
@@ -6083,6 +6118,11 @@
           <t>1387</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>11000</t>
+        </is>
+      </c>
       <c r="M64" t="inlineStr">
         <is>
           <t>West</t>
@@ -6105,6 +6145,11 @@
           <t>1390</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>14000</t>
+        </is>
+      </c>
       <c r="M65" t="inlineStr">
         <is>
           <t>West</t>
@@ -6222,6 +6267,11 @@
       <c r="B67" t="inlineStr">
         <is>
           <t>1400</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>11000</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
